--- a/wikipedia_validation_sheets/Ross River fever DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Ross River fever DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9374B748-61B5-2443-AF2F-90CA36083C86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A860E9-7016-9649-AAF1-4AEFDFAC6B24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50600" yWindow="460" windowWidth="20500" windowHeight="21060" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="43560" yWindow="1660" windowWidth="17620" windowHeight="19940" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="105">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Symptom</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
     <t>Ross River fever</t>
   </si>
   <si>
@@ -348,10 +345,25 @@
     <t>FPCONTEXT</t>
   </si>
   <si>
-    <t>DEPRESSION</t>
-  </si>
-  <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>Depression NOS</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,14 +439,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -657,56 +663,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -767,12 +728,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1157,43 +1115,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1226,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
@@ -1255,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
@@ -1284,10 +1242,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>13</v>
@@ -1313,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -1342,10 +1300,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -1371,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>13</v>
@@ -1400,10 +1358,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -1421,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1458,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>27</v>
@@ -1487,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
@@ -1516,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
@@ -1545,10 +1503,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
@@ -1603,10 +1561,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -1653,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1661,10 +1619,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>21</v>
@@ -1690,10 +1648,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>16</v>
@@ -1719,10 +1677,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>11</v>
@@ -1748,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>21</v>
@@ -1777,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>16</v>
@@ -1806,10 +1764,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>21</v>
@@ -1893,10 +1851,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>21</v>
@@ -1922,10 +1880,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -1951,10 +1909,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>16</v>
@@ -2067,10 +2025,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>21</v>
@@ -2096,10 +2054,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>16</v>
@@ -2125,10 +2083,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>11</v>
@@ -2154,10 +2112,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>21</v>
@@ -2183,10 +2141,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>16</v>
@@ -2241,13 +2199,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>94</v>
       </c>
       <c r="E40" s="22" t="b">
         <v>0</v>
@@ -2270,10 +2228,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>16</v>
@@ -2299,10 +2257,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>16</v>
@@ -2328,10 +2286,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>21</v>
@@ -2352,35 +2310,85 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>37</v>
-      </c>
+      <c r="C44" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
